--- a/itinerario.xlsx
+++ b/itinerario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/thai/itinerario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/thai/site/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C679AE-C609-8D4D-A9C9-708076C7360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC92B52F-9219-1F49-925A-EB6CA498E170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="500" windowWidth="26360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,8 +434,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -506,7 +507,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -515,6 +516,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -824,7 +826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -901,10 +903,10 @@
       <c r="A2" s="3">
         <v>45891</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>0.48958333333333331</v>
       </c>
       <c r="D2" t="s">
@@ -945,10 +947,10 @@
       <c r="A3" s="3">
         <v>45891</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>0.84375</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>0.40625</v>
       </c>
       <c r="D3" t="s">
@@ -983,9 +985,10 @@
       <c r="A4" s="3">
         <v>45892</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>0.40625</v>
       </c>
+      <c r="C4" s="6"/>
       <c r="D4" t="s">
         <v>126</v>
       </c>
@@ -1006,9 +1009,10 @@
       <c r="A5" s="3">
         <v>45892</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>0.58333333333333337</v>
       </c>
+      <c r="C5" s="6"/>
       <c r="D5" t="s">
         <v>20</v>
       </c>
@@ -1041,6 +1045,8 @@
       <c r="A6" s="3">
         <v>45892</v>
       </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" t="s">
         <v>130</v>
       </c>
@@ -1062,6 +1068,8 @@
       <c r="A7" s="3">
         <v>45892</v>
       </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>118</v>
       </c>
@@ -1088,10 +1096,10 @@
       <c r="A8" s="3">
         <v>45893</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" t="s">
@@ -1108,9 +1116,10 @@
       <c r="A9" s="3">
         <v>45893</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>0.35416666666666669</v>
       </c>
+      <c r="C9" s="6"/>
       <c r="D9" t="s">
         <v>47</v>
       </c>
@@ -1134,9 +1143,10 @@
       <c r="A10" s="3">
         <v>45893</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>0.39583333333333331</v>
       </c>
+      <c r="C10" s="6"/>
       <c r="D10" t="s">
         <v>48</v>
       </c>
@@ -1160,10 +1170,10 @@
       <c r="A11" s="3">
         <v>45893</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>0.375</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>0.45833333333333331</v>
       </c>
       <c r="D11" t="s">
@@ -1195,6 +1205,8 @@
       <c r="A12" s="3">
         <v>45893</v>
       </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" t="s">
         <v>49</v>
       </c>
@@ -1209,6 +1221,8 @@
       <c r="A13" s="3">
         <v>45893</v>
       </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" t="s">
         <v>50</v>
       </c>
@@ -1226,6 +1240,8 @@
       <c r="A14" s="3">
         <v>45893</v>
       </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" t="s">
         <v>103</v>
       </c>
@@ -1249,10 +1265,10 @@
       <c r="A15" s="3">
         <v>45894</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>0.45833333333333331</v>
       </c>
       <c r="D15" t="s">
@@ -1272,6 +1288,8 @@
       <c r="A16" s="3">
         <v>45894</v>
       </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" t="s">
         <v>51</v>
       </c>
@@ -1301,6 +1319,8 @@
       <c r="A17" s="3">
         <v>45894</v>
       </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -1315,6 +1335,8 @@
       <c r="A18" s="3">
         <v>45894</v>
       </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>53</v>
       </c>
@@ -1344,6 +1366,8 @@
       <c r="A19" s="3">
         <v>45894</v>
       </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" t="s">
         <v>54</v>
       </c>
@@ -1364,6 +1388,8 @@
       <c r="A20" s="3">
         <v>45894</v>
       </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" t="s">
         <v>55</v>
       </c>
@@ -1384,6 +1410,8 @@
       <c r="A21" s="3">
         <v>45894</v>
       </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" t="s">
         <v>103</v>
       </c>
@@ -1404,10 +1432,10 @@
       <c r="A22" s="3">
         <v>45895</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="6">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>0.60069444444444442</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1433,9 +1461,10 @@
       <c r="A23" s="3">
         <v>45895</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>0.60069444444444442</v>
       </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
         <v>61</v>
       </c>
@@ -1456,6 +1485,8 @@
       <c r="A24" s="3">
         <v>45895</v>
       </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
         <v>62</v>
       </c>
@@ -1470,6 +1501,8 @@
       <c r="A25" s="3">
         <v>45895</v>
       </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
         <v>63</v>
       </c>
@@ -1490,6 +1523,8 @@
       <c r="A26" s="3">
         <v>45896</v>
       </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="5" t="s">
         <v>63</v>
       </c>
@@ -1510,6 +1545,8 @@
       <c r="A27" s="3">
         <v>45896</v>
       </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="5" t="s">
         <v>71</v>
       </c>
@@ -1530,6 +1567,8 @@
       <c r="A28" s="3">
         <v>45897</v>
       </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
@@ -1550,6 +1589,8 @@
       <c r="A29" s="3">
         <v>45897</v>
       </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="5" t="s">
         <v>100</v>
       </c>
@@ -1573,6 +1614,8 @@
       <c r="A30" s="3">
         <v>45897</v>
       </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" t="s">
         <v>86</v>
       </c>
@@ -1596,6 +1639,8 @@
       <c r="A31" s="3">
         <v>45897</v>
       </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" t="s">
         <v>87</v>
       </c>
@@ -1613,6 +1658,8 @@
       <c r="A32" s="3">
         <v>45898</v>
       </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="5" t="s">
         <v>63</v>
       </c>
@@ -1633,6 +1680,8 @@
       <c r="A33" s="3">
         <v>45898</v>
       </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="5" t="s">
         <v>90</v>
       </c>
@@ -1653,6 +1702,8 @@
       <c r="A34" s="3">
         <v>45899</v>
       </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
         <v>91</v>
       </c>
@@ -1679,6 +1730,8 @@
       <c r="A35" s="3">
         <v>45899</v>
       </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="5" t="s">
         <v>99</v>
       </c>

--- a/itinerario.xlsx
+++ b/itinerario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/thai/site/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC92B52F-9219-1F49-925A-EB6CA498E170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D401D-2AAE-0741-AE86-505399451A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="500" windowWidth="26360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,9 +434,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -507,7 +506,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -516,7 +515,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -826,7 +824,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C35"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -903,10 +901,10 @@
       <c r="A2" s="3">
         <v>45891</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>0.48958333333333331</v>
       </c>
       <c r="D2" t="s">
@@ -947,10 +945,10 @@
       <c r="A3" s="3">
         <v>45891</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>0.84375</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.40625</v>
       </c>
       <c r="D3" t="s">
@@ -985,10 +983,9 @@
       <c r="A4" s="3">
         <v>45892</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>0.40625</v>
       </c>
-      <c r="C4" s="6"/>
       <c r="D4" t="s">
         <v>126</v>
       </c>
@@ -1009,10 +1006,9 @@
       <c r="A5" s="3">
         <v>45892</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C5" s="6"/>
       <c r="D5" t="s">
         <v>20</v>
       </c>
@@ -1045,8 +1041,6 @@
       <c r="A6" s="3">
         <v>45892</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
       <c r="D6" t="s">
         <v>130</v>
       </c>
@@ -1068,8 +1062,6 @@
       <c r="A7" s="3">
         <v>45892</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>118</v>
       </c>
@@ -1096,10 +1088,10 @@
       <c r="A8" s="3">
         <v>45893</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" t="s">
@@ -1116,10 +1108,9 @@
       <c r="A9" s="3">
         <v>45893</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C9" s="6"/>
       <c r="D9" t="s">
         <v>47</v>
       </c>
@@ -1143,10 +1134,9 @@
       <c r="A10" s="3">
         <v>45893</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="6"/>
       <c r="D10" t="s">
         <v>48</v>
       </c>
@@ -1170,10 +1160,10 @@
       <c r="A11" s="3">
         <v>45893</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>0.375</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0.45833333333333331</v>
       </c>
       <c r="D11" t="s">
@@ -1205,8 +1195,6 @@
       <c r="A12" s="3">
         <v>45893</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
       <c r="D12" t="s">
         <v>49</v>
       </c>
@@ -1221,8 +1209,6 @@
       <c r="A13" s="3">
         <v>45893</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
       <c r="D13" t="s">
         <v>50</v>
       </c>
@@ -1240,8 +1226,6 @@
       <c r="A14" s="3">
         <v>45893</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
       <c r="D14" t="s">
         <v>103</v>
       </c>
@@ -1265,10 +1249,10 @@
       <c r="A15" s="3">
         <v>45894</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>0.45833333333333331</v>
       </c>
       <c r="D15" t="s">
@@ -1288,8 +1272,6 @@
       <c r="A16" s="3">
         <v>45894</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
       <c r="D16" t="s">
         <v>51</v>
       </c>
@@ -1319,8 +1301,6 @@
       <c r="A17" s="3">
         <v>45894</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -1335,8 +1315,6 @@
       <c r="A18" s="3">
         <v>45894</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>53</v>
       </c>
@@ -1366,8 +1344,6 @@
       <c r="A19" s="3">
         <v>45894</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
       <c r="D19" t="s">
         <v>54</v>
       </c>
@@ -1388,8 +1364,6 @@
       <c r="A20" s="3">
         <v>45894</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
       <c r="D20" t="s">
         <v>55</v>
       </c>
@@ -1410,8 +1384,6 @@
       <c r="A21" s="3">
         <v>45894</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
       <c r="D21" t="s">
         <v>103</v>
       </c>
@@ -1432,10 +1404,10 @@
       <c r="A22" s="3">
         <v>45895</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>0.60069444444444442</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1461,10 +1433,9 @@
       <c r="A23" s="3">
         <v>45895</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>0.60069444444444442</v>
       </c>
-      <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
         <v>61</v>
       </c>
@@ -1485,8 +1456,6 @@
       <c r="A24" s="3">
         <v>45895</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
         <v>62</v>
       </c>
@@ -1501,8 +1470,6 @@
       <c r="A25" s="3">
         <v>45895</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
         <v>63</v>
       </c>
@@ -1523,8 +1490,6 @@
       <c r="A26" s="3">
         <v>45896</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
       <c r="D26" s="5" t="s">
         <v>63</v>
       </c>
@@ -1545,8 +1510,6 @@
       <c r="A27" s="3">
         <v>45896</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
       <c r="D27" s="5" t="s">
         <v>71</v>
       </c>
@@ -1567,8 +1530,6 @@
       <c r="A28" s="3">
         <v>45897</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
@@ -1589,8 +1550,6 @@
       <c r="A29" s="3">
         <v>45897</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
       <c r="D29" s="5" t="s">
         <v>100</v>
       </c>
@@ -1614,8 +1573,6 @@
       <c r="A30" s="3">
         <v>45897</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
       <c r="D30" t="s">
         <v>86</v>
       </c>
@@ -1639,8 +1596,6 @@
       <c r="A31" s="3">
         <v>45897</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
       <c r="D31" t="s">
         <v>87</v>
       </c>
@@ -1658,8 +1613,6 @@
       <c r="A32" s="3">
         <v>45898</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
       <c r="D32" s="5" t="s">
         <v>63</v>
       </c>
@@ -1680,8 +1633,6 @@
       <c r="A33" s="3">
         <v>45898</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
       <c r="D33" s="5" t="s">
         <v>90</v>
       </c>
@@ -1702,8 +1653,6 @@
       <c r="A34" s="3">
         <v>45899</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
         <v>91</v>
       </c>
@@ -1730,8 +1679,6 @@
       <c r="A35" s="3">
         <v>45899</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
       <c r="D35" s="5" t="s">
         <v>99</v>
       </c>
